--- a/SamsungTvRemote/Docs/Documentation.xlsx
+++ b/SamsungTvRemote/Docs/Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\9 - TV Remote\Ver 3,0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\9 - TV Remote\Ver 3,0\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5308DEC4-2669-4A8D-A025-3569D12AECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBB238-F37C-4C2F-86B3-E9D3191C0C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="735" windowWidth="15030" windowHeight="15240" xr2:uid="{10D4D932-22E2-45C4-A0CF-B5E1123547C1}"/>
+    <workbookView xWindow="9780" yWindow="345" windowWidth="18885" windowHeight="15240" xr2:uid="{10D4D932-22E2-45C4-A0CF-B5E1123547C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation Instructions" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="520">
   <si>
     <t>Application</t>
   </si>
@@ -1130,12 +1130,6 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/SamsungTvRemote/SamsungTVRemote.groovy</t>
-  </si>
-  <si>
-    <t>Hubitat:  Create a New Driver
-Select the Import button at the top
-Enter the above GitHub location and select OK.
-Save the driver.</t>
   </si>
   <si>
     <t>Note:</t>
@@ -1644,6 +1638,20 @@
   </si>
   <si>
     <t>Samsung TV Remote Commands</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>For new users, some of the items used in the directions assume you have read the Hubitat documentation:
+a. DeviceDetail:  https://docs.hubitat.com/index.php?title=Device_Detail
+b. AddDevice: https://docs.hubitat.com/index.php?title=Add_Device</t>
+  </si>
+  <si>
+    <t>Hubitat:  Create a New Virtual Driver
+Select the Import button at the top
+Enter the above GitHub location and select OK.
+Save the driver.</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1731,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1739,6 +1747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,7 +1870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1966,6 +1980,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2002,8 +2022,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2011,20 +2040,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2341,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A391C2-FA62-4C7C-953D-D611C11B667F}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2355,13 +2375,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="46">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2369,186 +2389,195 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="29" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B5" s="26" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B7" s="25" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B8" s="26" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="B9" s="26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="25" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>6</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>7</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <v>6</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
-        <v>7</v>
-      </c>
-      <c r="B14" s="34" t="s">
+      <c r="B16" s="51"/>
+    </row>
+    <row r="17" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="53"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54">
+        <v>1</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>2</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>4</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>6</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="49"/>
-    </row>
-    <row r="16" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="51"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52">
-        <v>1</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="31" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
-        <v>2</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <v>3</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
-        <v>4</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
-        <v>5</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
-        <v>6</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{449BC353-EE25-4AFA-887F-71C1F48AB912}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{1D4484D1-4203-4852-8F47-230E11F55CAF}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{1D4484D1-4203-4852-8F47-230E11F55CAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2568,223 +2597,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="56" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>413</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>415</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="B11" s="44" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="56"/>
+      <c r="A13" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="58"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>420</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>423</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>425</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>427</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="B19" s="44" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>432</v>
-      </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>433</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>435</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>437</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>439</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B25" s="44"/>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>442</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>444</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>446</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" s="44" t="s">
         <v>448</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2819,663 +2848,658 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="A1" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>481</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>482</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>481</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>451</v>
-      </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G3" s="62">
+        <v>466</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" s="62">
+        <v>467</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="46">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="C5" s="62">
+      <c r="B5" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="46">
         <v>2</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G5" s="62">
+        <v>468</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="62">
+        <v>454</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="46">
         <v>2</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="62">
+        <v>469</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="62">
+        <v>455</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="46">
         <v>21</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G7" s="62">
+        <v>470</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" s="62">
+        <v>456</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="46">
         <v>22</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G8" s="62">
+        <v>471</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="46">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="62"/>
+        <v>457</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="46"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G9" s="62">
+        <v>472</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="46">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" s="62"/>
+        <v>458</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="46"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G10" s="62">
+        <v>473</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="46">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="62"/>
+        <v>459</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="46"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G11" s="62">
+        <v>474</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" s="46">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C12" s="62">
+        <v>460</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="46">
         <v>13</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G12" s="62">
+        <v>475</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G12" s="46">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C13" s="62">
+        <v>461</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" s="46">
         <v>4</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G13" s="62">
+        <v>476</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13" s="46">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" s="62">
+        <v>462</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" s="46">
         <v>36</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G14" s="62">
+        <v>477</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="46">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C15" s="62">
+        <v>463</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="46">
         <v>37</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G15" s="62">
+        <v>478</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" s="46">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C16" s="62">
+        <v>464</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="46">
         <v>8</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
-        <v>480</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="G16" s="62">
+        <v>479</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="46">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C17" s="62">
+        <v>465</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="46">
         <v>9</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-    </row>
-    <row r="18" spans="1:7" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="B19" s="62" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="B19" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="46"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="G19" s="62">
+        <v>493</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G19" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="C20" s="62"/>
+        <v>489</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" s="46"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="G20" s="62"/>
+        <v>515</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="C21" s="62"/>
+        <v>490</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="46"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="G21" s="62"/>
+        <v>494</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="C22" s="62">
+        <v>491</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="46">
         <v>38</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="G22" s="62"/>
+        <v>495</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="C23" s="62">
+        <v>492</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="46">
         <v>39</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="A24" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="C25" s="43" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C26" s="62">
+        <v>484</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="46">
         <v>6</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="E26" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="46">
+        <v>7</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="C27" s="62">
-        <v>7</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
+      <c r="A28" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="B29" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="B29" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" s="46"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="55" t="s">
-        <v>515</v>
-      </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="E29" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C30" s="62"/>
+        <v>502</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="46"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="E30" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C31" s="62">
+        <v>503</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="46">
         <v>43</v>
       </c>
       <c r="D31" s="44"/>
-      <c r="E31" s="56" t="s">
-        <v>512</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="E31" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>505</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C32" s="62"/>
+        <v>504</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="46"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="56" t="s">
-        <v>510</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="E32" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C33" s="62">
+        <v>505</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C33" s="46">
         <v>42</v>
       </c>
       <c r="D33" s="44"/>
-      <c r="E33" s="56" t="s">
-        <v>511</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="E33" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C34" s="62"/>
+        <v>506</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C34" s="46"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="56" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="E34" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C35" s="62"/>
+        <v>507</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="46"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="55" t="s">
-        <v>514</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="E35" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E35:G35"/>
@@ -3486,14 +3510,19 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3516,27 +3545,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3560,71 +3589,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="61"/>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="57"/>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>383</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>387</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>389</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>391</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>393</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4906,11 +4935,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5990,11 +6019,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>

--- a/SamsungTvRemote/Docs/Documentation.xlsx
+++ b/SamsungTvRemote/Docs/Documentation.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\9 - TV Remote\Ver 3,0\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\9 - TV Remote\Ver 4_0\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBB238-F37C-4C2F-86B3-E9D3191C0C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4093AE-18DE-44AF-9DB6-F5A1E3091942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="345" windowWidth="18885" windowHeight="15240" xr2:uid="{10D4D932-22E2-45C4-A0CF-B5E1123547C1}"/>
+    <workbookView xWindow="6435" yWindow="30" windowWidth="15570" windowHeight="15480" firstSheet="3" activeTab="6" xr2:uid="{10D4D932-22E2-45C4-A0CF-B5E1123547C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation Instructions" sheetId="4" r:id="rId1"/>
     <sheet name="Prefs and States" sheetId="8" r:id="rId2"/>
     <sheet name="Commands" sheetId="9" r:id="rId3"/>
     <sheet name="Button Interface" sheetId="7" r:id="rId4"/>
-    <sheet name="Release Notes" sheetId="6" r:id="rId5"/>
-    <sheet name="Remote Keys" sheetId="3" r:id="rId6"/>
-    <sheet name="TV Apps" sheetId="1" r:id="rId7"/>
-    <sheet name="Changes" sheetId="5" r:id="rId8"/>
+    <sheet name="Remote Keys" sheetId="3" r:id="rId5"/>
+    <sheet name="TV Apps" sheetId="1" r:id="rId6"/>
+    <sheet name="V4_0 Notes" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Changes!$A$1:$C$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Remote Keys'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'TV Apps'!$A$6:$C$98</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Remote Keys'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'TV Apps'!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Remote Keys'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'TV Apps'!$A$1:$C$206</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'V4_0 Notes'!$A$1:$C$60</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Remote Keys'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'TV Apps'!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="684">
   <si>
     <t>Application</t>
   </si>
@@ -1098,16 +1097,7 @@
     <t xml:space="preserve">  KEY_ZOOM2 = 'KEY_ZOOM2',</t>
   </si>
   <si>
-    <t>Version 3.0 Changes</t>
-  </si>
-  <si>
     <t>Samsung TV Remote Installation Instructions</t>
-  </si>
-  <si>
-    <t>Prepare you TV Set for the installation in the TV Settings:
-    •	Settings &gt; General &gt; Network &gt; Expert Settings
-    •	Power On with Mobile: selected (blue)
-    •	IP Remote: Enable</t>
   </si>
   <si>
     <t>Turn you TV ON.  Keep the remote handy!</t>
@@ -1233,54 +1223,6 @@
     </r>
   </si>
   <si>
-    <t>a.</t>
-  </si>
-  <si>
-    <t>Updated SmartThings Communications and logging to use my existing library code.</t>
-  </si>
-  <si>
-    <t>b.</t>
-  </si>
-  <si>
-    <t>Enabled setSoundMode() and setPictureMode() from capablity SamsungTV.</t>
-  </si>
-  <si>
-    <t>c.</t>
-  </si>
-  <si>
-    <t>Added command toggleSoundMode.  This will use Button command push(42).</t>
-  </si>
-  <si>
-    <t>d.</t>
-  </si>
-  <si>
-    <t>Added command togglePictureMode.  This will use Button command push(43).</t>
-  </si>
-  <si>
-    <t>e.</t>
-  </si>
-  <si>
-    <t>Converted setVolume() from UPNP to SmartThings command.</t>
-  </si>
-  <si>
-    <t>f.</t>
-  </si>
-  <si>
-    <t>Removed UPNP communications.</t>
-  </si>
-  <si>
-    <t>g.</t>
-  </si>
-  <si>
-    <t>Reworked method updated() to incorporate UPNP and SmartThings Changes.</t>
-  </si>
-  <si>
-    <t>Release Notes</t>
-  </si>
-  <si>
-    <t>Version 3.0</t>
-  </si>
-  <si>
     <t>Samsung TV Remote Current States</t>
   </si>
   <si>
@@ -1355,12 +1297,6 @@
     <t>Note: State Variables do not update on Devices Edit page until a page refresh is completed.</t>
   </si>
   <si>
-    <t>wsDeviceStatus</t>
-  </si>
-  <si>
-    <t>WS: open/closed</t>
-  </si>
-  <si>
     <t>supportedInputs</t>
   </si>
   <si>
@@ -1382,9 +1318,6 @@
     <t>WS: token from TV allowing WS remote control.</t>
   </si>
   <si>
-    <t>Samsung TV Remote State Preferences</t>
-  </si>
-  <si>
     <t>Samsung TV IP</t>
   </si>
   <si>
@@ -1397,25 +1330,10 @@
     <t>LAN: Frequency to poll the LAN interface using a canned message.  A valid return causes the power (switch) to set to on and on first encounter initiates some power-on processing.  An invalid return sets switch to off.</t>
   </si>
   <si>
-    <t>Device Refresh Interval</t>
-  </si>
-  <si>
-    <t>Runs refresh processing.  If switch is off, the processing will stop.  If on, it will update LAN and ST settings.</t>
-  </si>
-  <si>
     <t>TV Startup Display</t>
   </si>
   <si>
     <t>When turned on via this driver, the startup display to initiate.  Only works if the device is turned on via the Hubitat Device instance.</t>
-  </si>
-  <si>
-    <t>DebugLog/ Info Log</t>
-  </si>
-  <si>
-    <t>Use Alternate WOL MAC</t>
-  </si>
-  <si>
-    <t>If the power on function doesn’t work on initiation, setting this will set an alternate WOL MAC (w/o colons).</t>
   </si>
   <si>
     <t>Connect to SmartThings</t>
@@ -1652,31 +1570,590 @@
 Select the Import button at the top
 Enter the above GitHub location and select OK.
 Save the driver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare you TV Set for the installation in the TV Settings:
+    •	Settings &gt; General &gt; Network &gt; Expert Settings
+        •	    Power On with Mobile: selected (blue)
+        •	    IP Remote: Enable
+    •	General &gt; External Deice Manage &gt; Device Connect Manager &gt; Access Notification
+        •	    Value should be "First Time Only"   </t>
+  </si>
+  <si>
+    <t>SmartThings Poll Interval</t>
+  </si>
+  <si>
+    <t>Minutes.  Time between refresh and poll of the SmartThings data via the SmartThings cloud.</t>
+  </si>
+  <si>
+    <t>Scan for App Codes</t>
+  </si>
+  <si>
+    <t>Runs a slow scan for the Samsung Smart TV applications that are installed on the TV.  TV MUST BE ON.  Scans 100 + codes and takes over 10 minutes to complete.</t>
+  </si>
+  <si>
+    <t>Delete and Rescan for App Codes</t>
+  </si>
+  <si>
+    <t>Deletes the database and rescans for the database.  For use when an app code no longer works (was for some reason deleted in the TV).</t>
+  </si>
+  <si>
+    <t>Samsung TV Remote Preferences</t>
+  </si>
+  <si>
+    <t>currentApp</t>
+  </si>
+  <si>
+    <t>The currently running TV Smart App</t>
+  </si>
+  <si>
+    <t>trackDescription</t>
+  </si>
+  <si>
+    <t>ST: ST report of the currently playing tracn.</t>
+  </si>
+  <si>
+    <t>transportStatus</t>
+  </si>
+  <si>
+    <t>ST: ST report of the transport state</t>
+  </si>
+  <si>
+    <t>wsStatus</t>
+  </si>
+  <si>
+    <t>The current WebSocket status.</t>
+  </si>
+  <si>
+    <t>standbyTest</t>
+  </si>
+  <si>
+    <t>Used in on/off polling to preclude on-off ping-pong.</t>
+  </si>
+  <si>
+    <t>appData</t>
+  </si>
+  <si>
+    <t>The SmartApp database of apps on your TV.</t>
+  </si>
+  <si>
+    <t>3201704012147: "10 play",</t>
+  </si>
+  <si>
+    <t>3201803015934: "7plus",</t>
+  </si>
+  <si>
+    <t>3201607010031: "9Now",</t>
+  </si>
+  <si>
+    <t>3201812017479: "ABC iview",</t>
+  </si>
+  <si>
+    <t>111299002148: "All 4",</t>
+  </si>
+  <si>
+    <t>AQKO41xyKP.AmazonAlexa: "Amazon Alexa",</t>
+  </si>
+  <si>
+    <t>3202004020626: "Amazon Alexa",</t>
+  </si>
+  <si>
+    <t>3201710014874: "Amazon Music",</t>
+  </si>
+  <si>
+    <t>3201611011005: "AntenaPlay.ro",</t>
+  </si>
+  <si>
+    <t>3201908019041: "Apple Music",</t>
+  </si>
+  <si>
+    <t>3201807016597: "Apple TV",</t>
+  </si>
+  <si>
+    <t>3202011022316: "ARTE",</t>
+  </si>
+  <si>
+    <t>3201910019420: "B.tv",</t>
+  </si>
+  <si>
+    <t>3201601007670: "BBC iPlayer",</t>
+  </si>
+  <si>
+    <t>3201602007865: "BBC News",</t>
+  </si>
+  <si>
+    <t>3202003020365: "BBC Sounds",</t>
+  </si>
+  <si>
+    <t>3202007021336: "Benshi",</t>
+  </si>
+  <si>
+    <t>3202010022098: "BINGE",</t>
+  </si>
+  <si>
+    <t>3201909019175: "BritBox",</t>
+  </si>
+  <si>
+    <t>3201803015869: "Canaal Digitaal",</t>
+  </si>
+  <si>
+    <t>3201606009910: "CANAL+",</t>
+  </si>
+  <si>
+    <t>3201506003488: "Crave",</t>
+  </si>
+  <si>
+    <t>3201506003486: "CTV",</t>
+  </si>
+  <si>
+    <t>3201806016390: "DAZN",</t>
+  </si>
+  <si>
+    <t>3201608010191: "Deezer",</t>
+  </si>
+  <si>
+    <t>3201907018786: "DIRECTV GO",</t>
+  </si>
+  <si>
+    <t>3201803015944: "Discovery+",</t>
+  </si>
+  <si>
+    <t>MCmYXNxgcu.DisneyPlus: "Disney+",</t>
+  </si>
+  <si>
+    <t>3201901017640: "Disney+",</t>
+  </si>
+  <si>
+    <t>3201608010385: "EduPedia",</t>
+  </si>
+  <si>
+    <t>vYmY3ACVaa.emby: "Emby",</t>
+  </si>
+  <si>
+    <t>3201703012079: "Eurosport Player",</t>
+  </si>
+  <si>
+    <t>3202004020674: "Explore Google Assistant",</t>
+  </si>
+  <si>
+    <t>11091000000: "Facebook Watch",</t>
+  </si>
+  <si>
+    <t>3201906018693: "Focus Sat",</t>
+  </si>
+  <si>
+    <t>3201910019449: "Foxtel",</t>
+  </si>
+  <si>
+    <t>3202103023232: "france.tv",</t>
+  </si>
+  <si>
+    <t>3201710015037: "Gallery",</t>
+  </si>
+  <si>
+    <t>3201908019022: "globoplay",</t>
+  </si>
+  <si>
+    <t>3202008021439: "Google Duo",</t>
+  </si>
+  <si>
+    <t>3201806016381: "hayu",</t>
+  </si>
+  <si>
+    <t>3201706012478: "HBO GO",</t>
+  </si>
+  <si>
+    <t>cj37Ni3qXM.HBONow: "HBO Max",</t>
+  </si>
+  <si>
+    <t>3201601007230: "HBO Max",</t>
+  </si>
+  <si>
+    <t>LBUAQX1exg.Hulu: "Hulu",</t>
+  </si>
+  <si>
+    <t>3201601007625: "Hulu",</t>
+  </si>
+  <si>
+    <t>3201907018784: "Internet",</t>
+  </si>
+  <si>
+    <t>org.tizen.browser: "Internet",</t>
+  </si>
+  <si>
+    <t>121299000089: "ITV Hub",</t>
+  </si>
+  <si>
+    <t>3201910019354: "Kayo Sports",</t>
+  </si>
+  <si>
+    <t>3201910019457: "Kidoodle.TV FREE, KidSafe Videos",</t>
+  </si>
+  <si>
+    <t>3201901017768: "Kijk",</t>
+  </si>
+  <si>
+    <t>3201703012065: "Love Nature 4K",</t>
+  </si>
+  <si>
+    <t>3201612011418: "McAfee Security",</t>
+  </si>
+  <si>
+    <t>3201603008210: "MLB",</t>
+  </si>
+  <si>
+    <t>3201611011210: "Molotov",</t>
+  </si>
+  <si>
+    <t>121299000612: "My5",</t>
+  </si>
+  <si>
+    <t>11101200001: "Netflix",</t>
+  </si>
+  <si>
+    <t>3201907018807: "Netflix",</t>
+  </si>
+  <si>
+    <t>3202012022421: "NL Ziet",</t>
+  </si>
+  <si>
+    <t>3202011022131: "NOW PlayTV",</t>
+  </si>
+  <si>
+    <t>3201603008746: "NOW TV",</t>
+  </si>
+  <si>
+    <t>3201706014250: "NPO",</t>
+  </si>
+  <si>
+    <t>3201703012029: "OCS",</t>
+  </si>
+  <si>
+    <t>3202103023185: "OQEE by Free",</t>
+  </si>
+  <si>
+    <t>3201710014866: "Orange TV Go",</t>
+  </si>
+  <si>
+    <t>3201506003175: "Pathe Thuis",</t>
+  </si>
+  <si>
+    <t>gzcc4LRFBF.Peacock: "Peacock TV"</t>
+  </si>
+  <si>
+    <t>3201810017091: "Playzer",</t>
+  </si>
+  <si>
+    <t>3201512006963: "Plex",</t>
+  </si>
+  <si>
+    <t>3201512006785: "Prime Video",</t>
+  </si>
+  <si>
+    <t>3201910019365: "Prime Video",</t>
+  </si>
+  <si>
+    <t>3201909019271: "PrivacyChoices",</t>
+  </si>
+  <si>
+    <t>3201711015226: "Radio UK",</t>
+  </si>
+  <si>
+    <t>3202012022468: "Radio WOW",</t>
+  </si>
+  <si>
+    <t>111399002034: "RaiPlay",</t>
+  </si>
+  <si>
+    <t>3201511006428: "Rakuten TV",</t>
+  </si>
+  <si>
+    <t>3201704012212: "RMC Sport",</t>
+  </si>
+  <si>
+    <t>3201510005981: "SBS On Demand",</t>
+  </si>
+  <si>
+    <t>3202009021877: "Security Center",</t>
+  </si>
+  <si>
+    <t>111399002220: "SiriusXM",</t>
+  </si>
+  <si>
+    <t>ZmmGjO6VKO.slingtv: "Sling TV",</t>
+  </si>
+  <si>
+    <t>3201710015016: "SmartThings",</t>
+  </si>
+  <si>
+    <t>3201910019378: "SmartThings",</t>
+  </si>
+  <si>
+    <t>3201606009684: "Spotify",</t>
+  </si>
+  <si>
+    <t>3201606009798: "Stan",</t>
+  </si>
+  <si>
+    <t>3201702011851: "Steam Link",</t>
+  </si>
+  <si>
+    <t>3201604009182: "Telecine",</t>
+  </si>
+  <si>
+    <t>3202008021462: "Telefoot",</t>
+  </si>
+  <si>
+    <t>11101000407: "Telstra TV Box Office",</t>
+  </si>
+  <si>
+    <t>111399000741: "The Weather Network",</t>
+  </si>
+  <si>
+    <t>3201805016367: "TIDAL",</t>
+  </si>
+  <si>
+    <t>3202008021577: "TikTok",</t>
+  </si>
+  <si>
+    <t>3KA0pm7a7V.TubiTV: "Tubi Free Movies &amp; TV",</t>
+  </si>
+  <si>
+    <t>3201504001965: "Tubi Free Movies &amp; TV",</t>
+  </si>
+  <si>
+    <t>121299000101: "TuneIn",</t>
+  </si>
+  <si>
+    <t>3201806016432: "UKTV Play",</t>
+  </si>
+  <si>
+    <t>3201710015067: "Universal Guide",</t>
+  </si>
+  <si>
+    <t>3201810017074: "Videoland",</t>
+  </si>
+  <si>
+    <t>111299000769: "VOYO.RO",</t>
+  </si>
+  <si>
+    <t>kk8MbItQ0H.VUDU" "VUDU",</t>
+  </si>
+  <si>
+    <t>111012010001: "VUDU",</t>
+  </si>
+  <si>
+    <t>111299001912: "YouTube",</t>
+  </si>
+  <si>
+    <t>3201611010983: "YouTube Kids",</t>
+  </si>
+  <si>
+    <t>3201707014489: "YouTube TV",</t>
+  </si>
+  <si>
+    <t>PvWgqxV3Xa.YouTubeTV: "YouTube TV"</t>
+  </si>
+  <si>
+    <t>Cumulative Modifications.  Thanks to @HubJay for his recommendations and testing!</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>Changed methods for artMode to accommodate 2022 model and pre-2022 model operations.</t>
+  </si>
+  <si>
+    <t>Uses modelYear developed during setup.</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>Update Hubitat methods on and off</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Immediately set new state</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Block out onPoll parsing for 60 seconds to preclude switch state ping-pong</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>On: cause power on display mode to run.</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>Update onPollParse to accommodate hubitat-external on/off commmanding</t>
+  </si>
+  <si>
+    <t>Obtain two off indications prior to declaring state switch to off</t>
+  </si>
+  <si>
+    <t>Set power on display mode when on is first detected.</t>
+  </si>
+  <si>
+    <t>If powerState = on, getArtModeStatus (Frame-TV pre 2022)</t>
+  </si>
+  <si>
+    <t>d.</t>
+  </si>
+  <si>
+    <t>Known issue: Turning power on too soon after turning power off (2 minutes) can</t>
+  </si>
+  <si>
+    <t>cause anomolous behavior.</t>
+  </si>
+  <si>
+    <t>e.</t>
+  </si>
+  <si>
+    <t>Added preference and processing to scan for TV-installed applications.</t>
+  </si>
+  <si>
+    <t>f.</t>
+  </si>
+  <si>
+    <t>Modified TV App method to use the new state.appData.  Added closeApp method.</t>
+  </si>
+  <si>
+    <t>SAMSUNG TV SMART APP INTERFACE</t>
+  </si>
+  <si>
+    <t>New preferences:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan for App Codes: Scans list of 100+ app codes to detect on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">your TV.  Takes about 10 minutes.  The TV must remain on; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherwise no restrictions.  Running a second time will rescan </t>
+  </si>
+  <si>
+    <t>and may detect missed or new apps.</t>
+  </si>
+  <si>
+    <t>Delete and Rescan for App Codes: Deletes and rescans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmartThings Poll Interval.  In minutes.  Was originally </t>
+  </si>
+  <si>
+    <t>hard-coded to 5 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Open By Name: Opens an app by name using state.appData.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not case sensitive. App name does not need to be complete.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will start the fist app on the appList that matches the </t>
+  </si>
+  <si>
+    <t>entered text. If app is not in the state.appData database</t>
+  </si>
+  <si>
+    <t>will attempt the webSocket launch by name (unlikely)</t>
+  </si>
+  <si>
+    <t>Known ambiguity: YouTube and YouTube TV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Close.  Closes the current running (attribute currentApp) </t>
+  </si>
+  <si>
+    <t>application.  App must be in the state.appData database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding undetected app using appId.  A LIST OF APP CODES WITH </t>
+  </si>
+  <si>
+    <t>NAMES IS EMBEDDED IN THE METHOD XXXAPLIST().  Enter the code</t>
+  </si>
+  <si>
+    <t>into App Open By Code.  The system will attempt to load the</t>
+  </si>
+  <si>
+    <t>app and if found on your TV, will start the app and add the</t>
+  </si>
+  <si>
+    <t>code to appData.</t>
+  </si>
+  <si>
+    <t>Adding undetected apps with SmartThings.  If the preference</t>
+  </si>
+  <si>
+    <t>Connect to SmartThings is enabled, once an app starts, the</t>
+  </si>
+  <si>
+    <t>SmartThings interface attempt to add a new app to appData.</t>
+  </si>
+  <si>
+    <t>NEW POWER ON THREAD</t>
+  </si>
+  <si>
+    <t>Hubitat ON</t>
+  </si>
+  <si>
+    <t>sends common Wake-on-lan message</t>
+  </si>
+  <si>
+    <t>sets attribute switch to "on"</t>
+  </si>
+  <si>
+    <t>blocks onPoll function for 1 minute</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>sets artModeStatus and runs setPowerOnMode (default display)</t>
+  </si>
+  <si>
+    <t>Remote ON (including physical TV remote and SmartThings)</t>
+  </si>
+  <si>
+    <t>Detected through onPoll/onPollParse</t>
+  </si>
+  <si>
+    <t>If attribute switch is changed to ON, sets artModeStatus and runs setPoweOnMode.</t>
+  </si>
+  <si>
+    <t>Hubitat OFF</t>
+  </si>
+  <si>
+    <t>send power-off remote keys</t>
+  </si>
+  <si>
+    <t>sets attribute switch to "off"</t>
+  </si>
+  <si>
+    <t>Remote OFF (including physical TV remote and SmartThings)</t>
+  </si>
+  <si>
+    <t>If switch is on, closes WS and waits for a second off indication to set attribute switch to "off"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1731,7 +2208,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1741,12 +2218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,183 +2339,144 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2363,205 +2795,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A391C2-FA62-4C7C-953D-D611C11B667F}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="43"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="29" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>517</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="B19" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="B21" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="B22" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="B23" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="B24" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="B25" s="18" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
-        <v>7</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="51"/>
-    </row>
-    <row r="17" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="53"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54">
-        <v>1</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <v>2</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
-        <v>3</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
-        <v>4</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
-        <v>5</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
-        <v>6</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2583,246 +3015,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7466AD71-6575-49E0-AFBA-BB155188FFF3}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="26.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="46"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="46"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="48"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="57"/>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="56"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="B6" s="44" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" s="44" t="s">
+      <c r="B24" s="32" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" s="44" t="s">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="46"/>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="B26" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="44" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="B32" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="56"/>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13" s="58"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="56"/>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="44"/>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>448</v>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2839,664 +3313,664 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="42"/>
-    <col min="4" max="4" width="1.7109375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="21.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="31"/>
+    <col min="4" max="4" width="1.7109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="A1" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="34">
+        <v>21</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="34">
+        <v>22</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G10" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G11" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="34">
+        <v>13</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="34">
+        <v>4</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="34">
+        <v>36</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G14" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="34">
+        <v>37</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="34">
+        <v>8</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="34">
+        <v>9</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="G19" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" s="34">
+        <v>38</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="34">
+        <v>39</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="34">
+        <v>6</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="34">
+        <v>7</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C31" s="34">
+        <v>43</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" s="34">
+        <v>42</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="B34" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="46">
-        <v>2</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G5" s="46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C6" s="46">
-        <v>2</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G6" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="46">
-        <v>21</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G7" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="46">
-        <v>22</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G10" s="46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="B35" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C12" s="46">
-        <v>13</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G12" s="46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>461</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C13" s="46">
-        <v>4</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G13" s="46">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C14" s="46">
-        <v>36</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G14" s="46">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="46">
-        <v>37</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G15" s="46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C16" s="46">
-        <v>8</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G16" s="46">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="46">
-        <v>9</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="1:7" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>497</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="C35" s="34"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="G19" s="46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44" t="s">
-        <v>515</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="C22" s="46">
-        <v>38</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="C23" s="46">
-        <v>39</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>498</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C26" s="46">
-        <v>6</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C27" s="46">
-        <v>7</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="58" t="s">
-        <v>486</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>499</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>501</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-    </row>
-    <row r="31" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" s="46">
-        <v>43</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="58" t="s">
-        <v>511</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-    </row>
-    <row r="32" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="58" t="s">
-        <v>509</v>
-      </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>505</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C33" s="46">
-        <v>42</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="58" t="s">
-        <v>510</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-    </row>
-    <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="58" t="s">
-        <v>512</v>
-      </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3544,28 +4018,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3574,103 +4048,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE7ADED-6AE9-4F11-843F-B68351BEB19E}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="58.28515625" style="38" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" s="61"/>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="61"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>395</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BACFD6-BE90-4A65-BF35-011C05D115B5}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -4919,12 +5300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D863172-D13B-4CB8-A13E-2316A56C2986}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C206" sqref="A1:C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4935,11 +5316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5989,6 +6370,748 @@
       <c r="C98" s="7">
         <v>3201707014489</v>
       </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C98">
@@ -6002,109 +7125,426 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33108DB4-AD2C-43BC-A5A8-FAD7AFC6B90B}">
-  <dimension ref="A1:C16"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E362F5-0FE8-4E73-A5B5-7E52C1228A17}">
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
+      <c r="A2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
+      <c r="B3" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="18"/>
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
+      <c r="B5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
+      <c r="B6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
+      <c r="B7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
+      <c r="A8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B8" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
+      <c r="B9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C10" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
+      <c r="B11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C11" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
+      <c r="A12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B12" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
+      <c r="B13" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
+      <c r="A14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B14" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
+      <c r="A15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>621</v>
+      </c>
+      <c r="B18" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>626</v>
+      </c>
+      <c r="C19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>628</v>
+      </c>
+      <c r="C23" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>624</v>
+      </c>
+      <c r="B26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>626</v>
+      </c>
+      <c r="C27" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>632</v>
+      </c>
+      <c r="B32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>637</v>
+      </c>
+      <c r="B34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>640</v>
+      </c>
+      <c r="B39" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>621</v>
+      </c>
+      <c r="B44" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>626</v>
+      </c>
+      <c r="C45" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>628</v>
+      </c>
+      <c r="C46" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>630</v>
+      </c>
+      <c r="C47" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>674</v>
+      </c>
+      <c r="C48" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>624</v>
+      </c>
+      <c r="B49" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>626</v>
+      </c>
+      <c r="C50" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>628</v>
+      </c>
+      <c r="C51" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>632</v>
+      </c>
+      <c r="B52" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>626</v>
+      </c>
+      <c r="C53" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>628</v>
+      </c>
+      <c r="C54" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>630</v>
+      </c>
+      <c r="C55" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>637</v>
+      </c>
+      <c r="B56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>626</v>
+      </c>
+      <c r="C57" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>628</v>
+      </c>
+      <c r="C58" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>640</v>
+      </c>
+      <c r="B59" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>639</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>